--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_215.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_215.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.56, 21.08)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:01:35.260000', '0:01:53.640000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(114.52, 115.98)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(97.72, 114.06)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:07.140000', '0:00:22.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.08472222222222223</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['B', 'B/7', 'B/6', 'B/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:01:24.787426', '0:01:27.427993')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.440395', '0:00:03.280385')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.24, 21.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(61.3, 70.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
